--- a/medicine/Psychotrope/Anheuser-Busch/Anheuser-Busch.xlsx
+++ b/medicine/Psychotrope/Anheuser-Busch/Anheuser-Busch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anheuser-Busch Companies, était, au niveau mondial et en volume, le troisième producteur de bière derrière InBev et SABMiller, tout en étant leader sur le marché américain. La société, basée à Saint-Louis, brassait quelque 40 variétés de bières et liqueurs de malt différentes[Quand ?]. Les principales marques commercialisées étaient Budweiser, Busch, Michelob et Natural Light. La société était cotée à la Bourse de New York sous le code BUD.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Débuts et expansion nationale
-En 1852, George Schneider, un brasseur et tenancier de saloon de Saint-Louis ouvre la brasserie bavaroise à Saint-Louis. La brasserie Schneider est agrandie en 1856 avec une nouvelle salle de brassage, mais les problèmes financiers forcent, l'année suivante, la vente de la brasserie qui passe entre les mains de différents propriétaires au cours des années 1850. En 1860, la brasserie est achetée au bord de la faillite par William D'Oench, un pharmacien local et Eberhard Anheuser, un fabricant prospère de savon d'origine allemande. De 1860 à 1875, la brasserie est connue sous le nom E. Anheuser &amp; Co, et de 1875 à 1879 en tant que société Anheuser E. Brewing Association. Adolphus Busch, un grossiste qui avait immigré d'Allemagne à Saint-Louis en 1857, épouse la fille de Eberhard Anheuser en 1861. Après son service dans la guerre de Sécession, Busch commence à travailler comme vendeur pour la brasserie Anheuser et achète les parts de D'Oench dans la société en 1869. Il assume le rôle de secrétaire de la société à partir de ce moment jusqu'à la mort de son beau-père.
+          <t>Débuts et expansion nationale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1852, George Schneider, un brasseur et tenancier de saloon de Saint-Louis ouvre la brasserie bavaroise à Saint-Louis. La brasserie Schneider est agrandie en 1856 avec une nouvelle salle de brassage, mais les problèmes financiers forcent, l'année suivante, la vente de la brasserie qui passe entre les mains de différents propriétaires au cours des années 1850. En 1860, la brasserie est achetée au bord de la faillite par William D'Oench, un pharmacien local et Eberhard Anheuser, un fabricant prospère de savon d'origine allemande. De 1860 à 1875, la brasserie est connue sous le nom E. Anheuser &amp; Co, et de 1875 à 1879 en tant que société Anheuser E. Brewing Association. Adolphus Busch, un grossiste qui avait immigré d'Allemagne à Saint-Louis en 1857, épouse la fille de Eberhard Anheuser en 1861. Après son service dans la guerre de Sécession, Busch commence à travailler comme vendeur pour la brasserie Anheuser et achète les parts de D'Oench dans la société en 1869. Il assume le rôle de secrétaire de la société à partir de ce moment jusqu'à la mort de son beau-père.
 Anheuser-Busch a été l'une des premières sociétés à transporter de la bière dans tous les États-Unis utilisant des wagons frigorifiques de chemin de fer.
 Adolphus Busch est le premier brasseur américain à utiliser la pasteurisation pour maintenir la bière fraîche, le premier à utiliser la réfrigération mécanique et les wagons frigorifiques et le premier à effectuer la mise en bouteille de manière intensive. En 1876, l'entreprise possède une flotte de quarante wagons frigorifiques pour le transport de la bière. L'expansion de l'aire de distribution de l'entreprise conduit à une demande accrue pour les produits Anheuser et la société agrandit considérablement ses installations de Saint-Louis dans les années 1870. Les expansions de production conduisent à passer de 31 500 barils en 1875 à plus de 200 000 en 1881. Pour simplifier les opérations de la compagnie de wagons frigorifiques, Busch crée la St. Louis Refrigerator Car Company en 1878, qui est chargée de la construction, la vente et la location de wagons frigorifiques. En 1883, la société détient 200 voitures et, en 1888, 850. 
 Durant les années 1870, Adolphus Busch fait une tournée en Europe et étudie les changements dans les méthodes de brassage qui avaient lieu à l'époque, notamment le succès de la pils, qui comprenait une variante populaire brassée à Budweis (actuelle České Budějovice). En 1876, Busch introduit la Budweiser, avec l'ambition de transcender les goûts régionaux. La capacité de transporter des bouteilles fait de Budweiser la première marque de bière nationale aux États-Unis, commercialisée en tant que bière premium.
@@ -548,7 +565,9 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les principales marques de bière vendues par Anheuser-Busch sont :
 Budweiser
@@ -585,12 +604,12 @@
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anheuser-Busch possédait Busch Entertainment Corporation, aussi appelée Anheuser-Busch Adventure Parks, société basée à Orlando en Floride, spécialisée dans le divertissement du type parc d'attraction, qui contrôlait le groupe de parcs d'attractions SeaWorld et Busch Gardens. Elle a été revendue au groupe Blackstone en octobre 2009 et rebaptisée SeaWorld Parks &amp; Entertainment .
-Anheuser-Busch redistribuait une partie de ses bénéfices sous forme de dons aux associations de la région de Saint-Louis (dix millions de dollars en 2007)[1]
-Activités illégales
-Comme de nombreuses autres entreprises américaines de boisson et spiritueux, Anheuser-Busch est mis en cause au milieu des années 1970 : « les ententes sur les prix, le dumping, et les remises d'incitations illégales se pratiquent dans l'industrie de la bière à une telle échelle qu'on peut dire qu'ils sont devenus la norme », indique le BATF (Bureau de l'alcool, du tabac, des armes à feu et explosifs). Ces pratiques ont notamment permis aux plus grosses entreprises de détruire des centaines de petites entreprises[2].
+Anheuser-Busch redistribuait une partie de ses bénéfices sous forme de dons aux associations de la région de Saint-Louis (dix millions de dollars en 2007)
 </t>
         </is>
       </c>
@@ -616,15 +635,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités illégales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme de nombreuses autres entreprises américaines de boisson et spiritueux, Anheuser-Busch est mis en cause au milieu des années 1970 : « les ententes sur les prix, le dumping, et les remises d'incitations illégales se pratiquent dans l'industrie de la bière à une telle échelle qu'on peut dire qu'ils sont devenus la norme », indique le BATF (Bureau de l'alcool, du tabac, des armes à feu et explosifs). Ces pratiques ont notamment permis aux plus grosses entreprises de détruire des centaines de petites entreprises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anheuser-Busch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anheuser-Busch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Campagnes marketing</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En faveur des personnes transgenres
-En 2023, la marque Bud Light, marque de bière la plus vendue aux États-Unis, choisit la star transgenre de TikTok Dylan Mulvaney comme nouveau porte-parole, une démarche justifiée par la vice-présidente du marketing de Bud Light, Alissa Heinerscheid, afin de rendre la marque plus « inclusive ». Cette décision intervient dans un contexte où les ventes de Bud Light sont en baisse depuis plusieurs années, la marque pouvant être, selon les observateurs de l'industrie; bientôt dépassée par Corona ou Modelo en tant que marque de bière la plus vendue au pays[3].
-Un boycott des produits Anheuser-Busch, en particulier ses produits Bud Light, la première marque de bière aux États-Unis[4], a commencé en avril 2023. Le boycott était dû à un parrainage que la société a mené avec Dylan Mulvaney le 1er avril, qui faisait partie d'une campagne plus vaste visant à faire face à la baisse des ventes de Bud Light et à attirer un public plus jeune[5]. Mulvaney, une femme transgenre et militante transgenre[6], a fait la promotion de la marque de bière Bud Light de l'entreprise pendant March Madness.
-La vidéo a déclenché une réaction violente de la part d'individus anti-trans et de conservateurs américains, dont le chanteur Kid Rock, qui a aidé à lancer un boycott contre Bud Light en particulier et Anheuser-Busch en général[7]. En mai 2023, les actions d'AB InBev ont chuté de 20 %, suffisamment pour qu'elles soient classées comme actions baissières par Forbes tandis que HSBC a réduit les actions d'AB InBev à un maintien[8]. CNBC a estimé qu'en mai, les ventes d'AB InBev avaient chuté de 18 %[9]. En mai 2023, Bud Light a perdu son statut de bière la plus vendue aux États-Unis au profit de Modelo Especial[10].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En faveur des personnes transgenres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, la marque Bud Light, marque de bière la plus vendue aux États-Unis, choisit la star transgenre de TikTok Dylan Mulvaney comme nouveau porte-parole, une démarche justifiée par la vice-présidente du marketing de Bud Light, Alissa Heinerscheid, afin de rendre la marque plus « inclusive ». Cette décision intervient dans un contexte où les ventes de Bud Light sont en baisse depuis plusieurs années, la marque pouvant être, selon les observateurs de l'industrie; bientôt dépassée par Corona ou Modelo en tant que marque de bière la plus vendue au pays.
+Un boycott des produits Anheuser-Busch, en particulier ses produits Bud Light, la première marque de bière aux États-Unis, a commencé en avril 2023. Le boycott était dû à un parrainage que la société a mené avec Dylan Mulvaney le 1er avril, qui faisait partie d'une campagne plus vaste visant à faire face à la baisse des ventes de Bud Light et à attirer un public plus jeune. Mulvaney, une femme transgenre et militante transgenre, a fait la promotion de la marque de bière Bud Light de l'entreprise pendant March Madness.
+La vidéo a déclenché une réaction violente de la part d'individus anti-trans et de conservateurs américains, dont le chanteur Kid Rock, qui a aidé à lancer un boycott contre Bud Light en particulier et Anheuser-Busch en général. En mai 2023, les actions d'AB InBev ont chuté de 20 %, suffisamment pour qu'elles soient classées comme actions baissières par Forbes tandis que HSBC a réduit les actions d'AB InBev à un maintien. CNBC a estimé qu'en mai, les ventes d'AB InBev avaient chuté de 18 %. En mai 2023, Bud Light a perdu son statut de bière la plus vendue aux États-Unis au profit de Modelo Especial.
 </t>
         </is>
       </c>
